--- a/R/analysis/data/Pt_33_M1.xlsx
+++ b/R/analysis/data/Pt_33_M1.xlsx
@@ -521,10 +521,10 @@
         <v>5.67</v>
       </c>
       <c r="M2" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.8</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>2.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.13</v>
+        <v>0.89</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>2.08</v>
@@ -637,16 +637,16 @@
         <v>1.68</v>
       </c>
       <c r="K4" t="n">
-        <v>5.71</v>
+        <v>1.46</v>
       </c>
       <c r="L4" t="n">
-        <v>1.64</v>
+        <v>4.64</v>
       </c>
       <c r="M4" t="n">
-        <v>5.75</v>
+        <v>0.19</v>
       </c>
       <c r="N4" t="n">
-        <v>0.27</v>
+        <v>4.46</v>
       </c>
       <c r="O4" t="n">
         <v>0.18</v>
@@ -703,10 +703,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>3.13</v>
+        <v>2.56</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.83</v>
+        <v>4.17</v>
       </c>
       <c r="O5" t="n">
         <v>0.35</v>
@@ -760,7 +760,7 @@
         <v>1.38</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.41</v>
@@ -817,16 +817,16 @@
         <v>1.54</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>1.77</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>4.83</v>
+        <v>0.83</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.42</v>
+        <v>3.58</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.47</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.83</v>
+        <v>2.83</v>
       </c>
       <c r="M9" t="n">
         <v>1.41</v>
@@ -997,16 +997,16 @@
         <v>0.82</v>
       </c>
       <c r="K10" t="n">
-        <v>6.24</v>
+        <v>2.24</v>
       </c>
       <c r="L10" t="n">
-        <v>1.58</v>
+        <v>4.42</v>
       </c>
       <c r="M10" t="n">
-        <v>7.07</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0.85</v>
       </c>
       <c r="K12" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0.82</v>
@@ -1175,10 +1175,10 @@
         <v>1.16</v>
       </c>
       <c r="K13" t="n">
-        <v>3.94</v>
+        <v>2.52</v>
       </c>
       <c r="L13" t="n">
-        <v>2.79</v>
+        <v>3.79</v>
       </c>
       <c r="M13" t="n">
         <v>3.77</v>
@@ -1298,7 +1298,7 @@
         <v>0.71</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.22</v>
@@ -1355,10 +1355,10 @@
         <v>1.18</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>1.06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.77</v>
@@ -1478,7 +1478,7 @@
         <v>1.53</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.33</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
         <v>2.28</v>
@@ -1533,10 +1533,10 @@
         <v>0.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>2.06</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>2.79</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
@@ -1602,7 +1602,7 @@
         <v>2.83</v>
       </c>
       <c r="N20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>4.25</v>
       </c>
       <c r="M22" t="n">
-        <v>5.96</v>
+        <v>1.72</v>
       </c>
       <c r="N22" t="n">
-        <v>1.21</v>
+        <v>4.22</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1767,14 +1767,14 @@
         <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="L23" t="n">
-        <v>4.14</v>
+        <v>4.71</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>0.8</v>
       </c>
       <c r="K24" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>2.71</v>
@@ -1885,16 +1885,16 @@
         <v>0.92</v>
       </c>
       <c r="K25" t="n">
-        <v>2.93</v>
+        <v>2.62</v>
       </c>
       <c r="L25" t="n">
-        <v>2.07</v>
+        <v>2.86</v>
       </c>
       <c r="M25" t="n">
-        <v>4.36</v>
+        <v>2.95</v>
       </c>
       <c r="N25" t="n">
-        <v>2.08</v>
+        <v>3.08</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -2061,10 +2061,10 @@
         <v>1.15</v>
       </c>
       <c r="K28" t="n">
-        <v>4.12</v>
+        <v>2.71</v>
       </c>
       <c r="L28" t="n">
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="M28" t="n">
         <v>2.98</v>
